--- a/CurseWordFilter/badwordss.xlsx
+++ b/CurseWordFilter/badwordss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Local repository\main_repo\Python\NoBadWords\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Local repository\shareCode\CurseWordFilter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E502F498-D3EE-41B2-960D-3151F5810AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D04FC1-2E5B-4FC3-BEF0-F6A0817E4738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11295" yWindow="1980" windowWidth="12420" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>cunt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,22 +52,6 @@
   </si>
   <si>
     <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>porn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bruh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,78 +401,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
